--- a/data/trans_dic/P1417-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1417-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.009130023355342095</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.009711867703540832</v>
+        <v>0.009711867703540834</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.004114433133073653</v>
@@ -685,7 +685,7 @@
         <v>0.0280250060453563</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.04289154915349936</v>
+        <v>0.04289154915349937</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.005026775138572661</v>
@@ -697,7 +697,7 @@
         <v>0.01849547457363064</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.02622894693563792</v>
+        <v>0.02622894693563793</v>
       </c>
     </row>
     <row r="5">
@@ -717,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.00249310459546521</v>
+        <v>0.002467650553856681</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01509008947970803</v>
+        <v>0.01790887991438212</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01099348866605823</v>
+        <v>0.01337149888578222</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02646198892851383</v>
+        <v>0.02592208506931909</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01034119710763583</v>
+        <v>0.01052451114566412</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.009552938722731965</v>
+        <v>0.009181292100115201</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01680208577097473</v>
+        <v>0.01655229436658786</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02904818858080919</v>
+        <v>0.02905681590195803</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02364966376968178</v>
+        <v>0.02031355405823205</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02932090374487832</v>
+        <v>0.02939753529935289</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02486606896422066</v>
+        <v>0.02255613677922682</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02096866774123373</v>
+        <v>0.02086316156777285</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05886028234583161</v>
+        <v>0.06260953843235209</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05610900655150009</v>
+        <v>0.05740141156540156</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08220447729213229</v>
+        <v>0.07850776316783743</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01710016182630872</v>
+        <v>0.01976624897405999</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03586590926771685</v>
+        <v>0.0356794143750172</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0356695911141035</v>
+        <v>0.03590788232727234</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04472197563165003</v>
+        <v>0.04490509895505859</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.008252334985174789</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.007655497273968988</v>
+        <v>0.007655497273968986</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02165073602390597</v>
@@ -833,7 +833,7 @@
         <v>0.008242048260849351</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.02286519642519346</v>
+        <v>0.02286519642519345</v>
       </c>
     </row>
     <row r="8">
@@ -848,34 +848,34 @@
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
-        <v>0.002074952603313909</v>
+        <v>0.002074636101887391</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.001745477866256631</v>
+        <v>0.001717031055471376</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01156933142517547</v>
+        <v>0.01147848253790069</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.009916917042387422</v>
+        <v>0.009781221455983539</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002334588129561668</v>
+        <v>0.001926786858053869</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02477809434996574</v>
+        <v>0.02549726117530697</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.006322086980735683</v>
+        <v>0.006973517325416971</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.004989390488632115</v>
+        <v>0.005186523190449619</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.004048349187024846</v>
+        <v>0.004060952212129875</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01569606496109298</v>
+        <v>0.01614932069171848</v>
       </c>
     </row>
     <row r="9">
@@ -886,38 +886,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0189581253290085</v>
+        <v>0.01690830686799333</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.02058506689157874</v>
+        <v>0.02058500733933336</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01839723295852292</v>
+        <v>0.02037219043822379</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03793800225956218</v>
+        <v>0.03838739306124094</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0360732170771623</v>
+        <v>0.03499209126867885</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01916389479786233</v>
+        <v>0.01920080425134054</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05289730899196313</v>
+        <v>0.052491720572331</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02185707698467982</v>
+        <v>0.02261733119613803</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01791891387118985</v>
+        <v>0.01815516011593524</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01638611185182869</v>
+        <v>0.01636614426423233</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03182603045106335</v>
+        <v>0.03250461931939433</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.01138909044998569</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02329069171391966</v>
+        <v>0.02329069171391965</v>
       </c>
     </row>
     <row r="11">
@@ -983,31 +983,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.005179290139608315</v>
+        <v>0.004042960011954983</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002718069025753321</v>
+        <v>0.002711291759352453</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.006229250722535442</v>
+        <v>0.006208447925633103</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.008034186122069301</v>
+        <v>0.008203132059099614</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02062466519846525</v>
+        <v>0.021865902848483</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001394558933895291</v>
+        <v>0.001396892070823831</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.006076542812168708</v>
+        <v>0.004908711354781341</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.005111211273994659</v>
+        <v>0.005356091036793955</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01534429080588853</v>
+        <v>0.01531156349470449</v>
       </c>
     </row>
     <row r="12">
@@ -1019,37 +1019,37 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.02150138685284273</v>
+        <v>0.02146203602259463</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01236198537764612</v>
+        <v>0.01315452397233668</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02429874662054662</v>
+        <v>0.02397972409999018</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02343411405036163</v>
+        <v>0.02349791110285287</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03955605697322098</v>
+        <v>0.03724272118724542</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03765237076429889</v>
+        <v>0.03984947786216268</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04928032406195539</v>
+        <v>0.05080452454536345</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01323015425641291</v>
+        <v>0.01269610098638371</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02366878066324544</v>
+        <v>0.02332788127659987</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02097664934103957</v>
+        <v>0.02132703082507762</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03215220322093327</v>
+        <v>0.03367151049447571</v>
       </c>
     </row>
     <row r="13">
@@ -1085,7 +1085,7 @@
         <v>0.0381429523794182</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.04417057701951234</v>
+        <v>0.04417057701951235</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.007545366835450699</v>
@@ -1097,7 +1097,7 @@
         <v>0.02472605143453066</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02941827746687923</v>
+        <v>0.02941827746687922</v>
       </c>
     </row>
     <row r="14">
@@ -1112,34 +1112,34 @@
       </c>
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="n">
-        <v>0.002659273268434562</v>
+        <v>0.002770700190204126</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.005228771113245107</v>
+        <v>0.005331986649376743</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.004500365006826677</v>
+        <v>0.004136772496316583</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02404776454339522</v>
+        <v>0.02310773679508358</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02118040236076376</v>
+        <v>0.02254039644593149</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02860112321371576</v>
+        <v>0.02891096862160357</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.002616905353253828</v>
+        <v>0.002594606075642107</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01198942165213491</v>
+        <v>0.01185313260681668</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01541385124970297</v>
+        <v>0.01479047874899014</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02063647736497459</v>
+        <v>0.02012390248777763</v>
       </c>
     </row>
     <row r="15">
@@ -1150,38 +1150,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01528557906455617</v>
+        <v>0.01498041763364765</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.02474013961654608</v>
+        <v>0.02623127315673711</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02653923510429942</v>
+        <v>0.02641236959992791</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02635109237703607</v>
+        <v>0.02688413057994588</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06595279309088328</v>
+        <v>0.06504728646035483</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06170362810949841</v>
+        <v>0.06114367435989802</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0658771279235343</v>
+        <v>0.06638923567977459</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01639519542580582</v>
+        <v>0.01634257157482577</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03384874034059399</v>
+        <v>0.03405585043068718</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03905716867580352</v>
+        <v>0.0379323102179338</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04164837091816496</v>
+        <v>0.04084255586618686</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02809608057328829</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0328028649572699</v>
+        <v>0.03280286495726989</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.01746674346157707</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004626535473421711</v>
+        <v>0.00459353416163224</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
@@ -1252,28 +1252,28 @@
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01015997388016514</v>
+        <v>0.0112305649915134</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02714564065273075</v>
+        <v>0.02635129263568896</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.009784481642667472</v>
+        <v>0.009856529126296427</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01929654423106317</v>
+        <v>0.01871492294315295</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.007231299302067408</v>
+        <v>0.007261148046794502</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01892619400796687</v>
+        <v>0.01820921235912595</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.006857529712015773</v>
+        <v>0.006998384224168714</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01154586125832333</v>
+        <v>0.01244087136426485</v>
       </c>
     </row>
     <row r="18">
@@ -1284,40 +1284,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02206622021104757</v>
+        <v>0.02397308997104144</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03983059121041133</v>
+        <v>0.04056149388943125</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02208199521332718</v>
+        <v>0.02522839101036131</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01752534557360681</v>
+        <v>0.01579991352535707</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05889034065160685</v>
+        <v>0.06465440228606406</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09476485375291738</v>
+        <v>0.09760798278492529</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06230238066120452</v>
+        <v>0.05713444693399858</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05017029623085112</v>
+        <v>0.04993366436955802</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03587415414350588</v>
+        <v>0.03752255273253403</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05869884384413708</v>
+        <v>0.05568270448475935</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03263350548142688</v>
+        <v>0.03505768163572286</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02999878949788982</v>
+        <v>0.02970526071955974</v>
       </c>
     </row>
     <row r="19">
@@ -1380,34 +1380,34 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.00298701855478679</v>
+        <v>0.002977035909337223</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02132141801095451</v>
+        <v>0.0219100502267604</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.003648449946130165</v>
+        <v>0.003641628796657767</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.006983595820905598</v>
+        <v>0.006970451841767175</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.004376122378759939</v>
+        <v>0.00427542921998977</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03753579883261925</v>
+        <v>0.03796018873909748</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.001847969955917699</v>
+        <v>0.001843148391273536</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.005370961081809267</v>
+        <v>0.005288398201541863</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.006027140208855699</v>
+        <v>0.005824536552540106</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03359797755072103</v>
+        <v>0.03383725024744158</v>
       </c>
     </row>
     <row r="21">
@@ -1419,37 +1419,37 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.02208404480871085</v>
+        <v>0.02527556946131971</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02887441323479671</v>
+        <v>0.03296805276479955</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05582938965923673</v>
+        <v>0.05816715176870717</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03170573466005135</v>
+        <v>0.02943013973134617</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04256325553708501</v>
+        <v>0.04166115062256195</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03815804231253963</v>
+        <v>0.04209104579424267</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08120897235168298</v>
+        <v>0.07653413281760577</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.01485279289576108</v>
+        <v>0.01670427835146909</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.02471929210991979</v>
+        <v>0.02489693119859228</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.0270022630546733</v>
+        <v>0.02695816382035343</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05907622345173863</v>
+        <v>0.05955070955363442</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.03062626619525927</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.09102543001062165</v>
+        <v>0.09102543001062167</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.0155460424487384</v>
@@ -1508,40 +1508,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.001531534703877851</v>
+        <v>0.001512776023141757</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.001349831075120993</v>
+        <v>0.001342529493939489</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0120404312616435</v>
+        <v>0.01169568574744988</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01385327425121903</v>
+        <v>0.01416949330308038</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01794668911690966</v>
+        <v>0.01766281399598799</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01896930206100252</v>
+        <v>0.01799032414498885</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07413941247548272</v>
+        <v>0.07408606854978912</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.009590167360481643</v>
+        <v>0.00982255200274351</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01010641888992776</v>
+        <v>0.01009890280902028</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01102821306896401</v>
+        <v>0.01175190557196544</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04707492371703231</v>
+        <v>0.04699027656040639</v>
       </c>
     </row>
     <row r="24">
@@ -1552,40 +1552,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01701732288799058</v>
+        <v>0.01416139567663062</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01046814719462053</v>
+        <v>0.009166961722973321</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01233643624382184</v>
+        <v>0.01099201629328119</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03269183428392779</v>
+        <v>0.03247248133986152</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04210053926111131</v>
+        <v>0.04130613599244232</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04673512126150385</v>
+        <v>0.04586459836663949</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04647835970132073</v>
+        <v>0.04514613692574516</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1114927956518834</v>
+        <v>0.1127577102604171</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02350441721732308</v>
+        <v>0.02473234289152096</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02466097141213468</v>
+        <v>0.02538445480625629</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02550907443303201</v>
+        <v>0.02639938045994446</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.07064852031774246</v>
+        <v>0.07036674174854905</v>
       </c>
     </row>
     <row r="25">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.002456741672828003</v>
+        <v>0.002413819720372442</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.001357526478029332</v>
+        <v>0.001354546481820041</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0009170105886593602</v>
+        <v>0.000925081553164495</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.007949939199198468</v>
+        <v>0.008778749639194542</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01202015683482561</v>
+        <v>0.01230029385589957</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01517529172666919</v>
+        <v>0.01644769068780345</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.007852694375899543</v>
+        <v>0.008181507329032266</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.006794559460885258</v>
+        <v>0.006726254567177998</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.008593099130813967</v>
+        <v>0.008162092634565384</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.008917487847333134</v>
+        <v>0.008640648345943002</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.005138695300857825</v>
+        <v>0.005285801469576665</v>
       </c>
     </row>
     <row r="27">
@@ -1688,40 +1688,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01467118287422647</v>
+        <v>0.01404763403292337</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01324409973554724</v>
+        <v>0.01295871325544361</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.007304734558678624</v>
+        <v>0.006635479810727252</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.009757013113685091</v>
+        <v>0.0111415939367898</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02772348408064394</v>
+        <v>0.02737617697892922</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03163888063761267</v>
+        <v>0.03263688699110321</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03989237718061207</v>
+        <v>0.04038676587582701</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.02382918773687704</v>
+        <v>0.02392753360518424</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01846485024868469</v>
+        <v>0.01823760731327168</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01999969047949638</v>
+        <v>0.0203043826771382</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.02100176866687958</v>
+        <v>0.02057920683756393</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.01394792744324848</v>
+        <v>0.01434896626610878</v>
       </c>
     </row>
     <row r="28">
@@ -1757,7 +1757,7 @@
         <v>0.0245092683986497</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.04518691758360206</v>
+        <v>0.04518691758360205</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.01069061083892849</v>
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.002268351721529086</v>
+        <v>0.002339409471686419</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.002672004141995643</v>
+        <v>0.002653860685908679</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.003640441964778206</v>
+        <v>0.003335593122821811</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.009423033397550198</v>
+        <v>0.009429766511322778</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.01303919915510766</v>
+        <v>0.01326929291945971</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.0223115472155917</v>
+        <v>0.02206987616510577</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.01977555351011983</v>
+        <v>0.01953636787609515</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.038814463212143</v>
+        <v>0.03993715915549653</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.008196931786894681</v>
+        <v>0.008155503519834689</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.01321933288778764</v>
+        <v>0.01328377755450758</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.01283276076392343</v>
+        <v>0.01240378695154584</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.0259621351950043</v>
+        <v>0.02579970112851944</v>
       </c>
     </row>
     <row r="30">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.007055784477338089</v>
+        <v>0.007028167501558786</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.007446310442123063</v>
+        <v>0.007045456988643975</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.008610046315213045</v>
+        <v>0.008276559108519611</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.01617218722224698</v>
+        <v>0.01586575757239109</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.02204848391161074</v>
+        <v>0.02208654957310167</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.03333290930711814</v>
+        <v>0.03350094007446795</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.03037864013392986</v>
+        <v>0.0303293833949761</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.05095528284109851</v>
+        <v>0.0517771648545118</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.01349864006524869</v>
+        <v>0.0133577148242824</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.01952213042737943</v>
+        <v>0.01931972429695555</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.01841215079889297</v>
+        <v>0.01834125632238676</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.03299524051875944</v>
+        <v>0.03277247341510115</v>
       </c>
     </row>
     <row r="31">
@@ -2141,31 +2141,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4335</v>
+        <v>5144</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3174</v>
+        <v>3860</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8364</v>
+        <v>8193</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6018</v>
+        <v>6125</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>5564</v>
+        <v>5348</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>10668</v>
+        <v>10509</v>
       </c>
     </row>
     <row r="7">
@@ -2176,40 +2176,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7930</v>
+        <v>7933</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6970</v>
+        <v>5987</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8613</v>
+        <v>8636</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7928</v>
+        <v>7192</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5469</v>
+        <v>5442</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16907</v>
+        <v>17984</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16199</v>
+        <v>16572</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>25982</v>
+        <v>24813</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>9129</v>
+        <v>10552</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>20873</v>
+        <v>20765</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>20776</v>
+        <v>20915</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>28394</v>
+        <v>28511</v>
       </c>
     </row>
     <row r="8">
@@ -2319,31 +2319,31 @@
         <v>1043</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5830</v>
+        <v>5785</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5194</v>
+        <v>5123</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1221</v>
+        <v>1008</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>13493</v>
+        <v>13884</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6303</v>
+        <v>6953</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5136</v>
+        <v>5338</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4152</v>
+        <v>4165</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>16840</v>
+        <v>17326</v>
       </c>
     </row>
     <row r="11">
@@ -2354,38 +2354,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9348</v>
+        <v>8337</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
         <v>10346</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9720</v>
+        <v>10763</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19119</v>
+        <v>19345</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18894</v>
+        <v>18328</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10024</v>
+        <v>10044</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>28805</v>
+        <v>28584</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>21792</v>
+        <v>22550</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>18444</v>
+        <v>18687</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>16807</v>
+        <v>16786</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>34145</v>
+        <v>34873</v>
       </c>
     </row>
     <row r="12">
@@ -2495,31 +2495,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1637</v>
+        <v>1278</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2124</v>
+        <v>2117</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2702</v>
+        <v>2759</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7350</v>
+        <v>7793</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>4041</v>
+        <v>3265</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3347</v>
+        <v>3508</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>10317</v>
+        <v>10295</v>
       </c>
     </row>
     <row r="15">
@@ -2531,37 +2531,37 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>6967</v>
+        <v>6955</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3938</v>
+        <v>4191</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7678</v>
+        <v>7577</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7860</v>
+        <v>7881</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>13489</v>
+        <v>12701</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12663</v>
+        <v>13402</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17563</v>
+        <v>18106</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8656</v>
+        <v>8307</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>15741</v>
+        <v>15515</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>13737</v>
+        <v>13967</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>21618</v>
+        <v>22640</v>
       </c>
     </row>
     <row r="16">
@@ -2668,34 +2668,34 @@
       </c>
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="n">
-        <v>984</v>
+        <v>1025</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1951</v>
+        <v>1990</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1672</v>
+        <v>1537</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9353</v>
+        <v>8988</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8203</v>
+        <v>8730</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>12069</v>
+        <v>12199</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1911</v>
+        <v>1894</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>9147</v>
+        <v>9043</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>11672</v>
+        <v>11200</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>16408</v>
+        <v>16001</v>
       </c>
     </row>
     <row r="19">
@@ -2706,38 +2706,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5482</v>
+        <v>5373</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>9153</v>
+        <v>9705</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>9903</v>
+        <v>9856</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9788</v>
+        <v>9986</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>25652</v>
+        <v>25300</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>23897</v>
+        <v>23680</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>27798</v>
+        <v>28014</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>11971</v>
+        <v>11932</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>25824</v>
+        <v>25982</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>29576</v>
+        <v>28724</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>33115</v>
+        <v>32474</v>
       </c>
     </row>
     <row r="20">
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
@@ -2852,28 +2852,28 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2110</v>
+        <v>2332</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5961</v>
+        <v>5787</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2139</v>
+        <v>2155</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>4371</v>
+        <v>4240</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2972</v>
+        <v>2984</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>8180</v>
+        <v>7870</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2947</v>
+        <v>3008</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4990</v>
+        <v>5377</v>
       </c>
     </row>
     <row r="23">
@@ -2884,40 +2884,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4486</v>
+        <v>4874</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8469</v>
+        <v>8624</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4664</v>
+        <v>5329</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3604</v>
+        <v>3249</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>12230</v>
+        <v>13427</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>20810</v>
+        <v>21434</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>13618</v>
+        <v>12489</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>11366</v>
+        <v>11312</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>14743</v>
+        <v>15421</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>25370</v>
+        <v>24067</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>14026</v>
+        <v>15068</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>12966</v>
+        <v>12839</v>
       </c>
     </row>
     <row r="24">
@@ -3024,34 +3024,34 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5772</v>
+        <v>5931</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1195</v>
+        <v>1168</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>9876</v>
+        <v>9987</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2965</v>
+        <v>2920</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>3232</v>
+        <v>3123</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>17935</v>
+        <v>18063</v>
       </c>
     </row>
     <row r="27">
@@ -3063,37 +3063,37 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>6051</v>
+        <v>6925</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7598</v>
+        <v>8675</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>15113</v>
+        <v>15746</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8819</v>
+        <v>8186</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>11837</v>
+        <v>11586</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>10422</v>
+        <v>11496</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>21366</v>
+        <v>20136</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>8154</v>
+        <v>9170</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>13647</v>
+        <v>13745</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>14480</v>
+        <v>14456</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>31535</v>
+        <v>31789</v>
       </c>
     </row>
     <row r="28">
@@ -3196,40 +3196,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>8626</v>
+        <v>8379</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>8841</v>
+        <v>9043</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>12452</v>
+        <v>12255</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>13113</v>
+        <v>12437</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>57088</v>
+        <v>57047</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>12019</v>
+        <v>12310</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>13711</v>
+        <v>13701</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>14864</v>
+        <v>15840</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>69975</v>
+        <v>69849</v>
       </c>
     </row>
     <row r="31">
@@ -3240,40 +3240,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10466</v>
+        <v>8710</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>6938</v>
+        <v>6076</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>8100</v>
+        <v>7217</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>23422</v>
+        <v>23265</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>26869</v>
+        <v>26362</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>32427</v>
+        <v>31823</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>32130</v>
+        <v>31209</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>85851</v>
+        <v>86825</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>29457</v>
+        <v>30996</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>33456</v>
+        <v>34438</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>34382</v>
+        <v>35582</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>105016</v>
+        <v>104597</v>
       </c>
     </row>
     <row r="32">
@@ -3376,40 +3376,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1827</v>
+        <v>1795</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>6229</v>
+        <v>6878</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>9875</v>
+        <v>10105</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>12537</v>
+        <v>13589</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>6518</v>
+        <v>6791</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>10377</v>
+        <v>10273</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>13754</v>
+        <v>13064</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>14310</v>
+        <v>13866</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>8366</v>
+        <v>8606</v>
       </c>
     </row>
     <row r="35">
@@ -3420,40 +3420,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>10912</v>
+        <v>10449</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>10318</v>
+        <v>10096</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>5687</v>
+        <v>5166</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>7787</v>
+        <v>8892</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>21722</v>
+        <v>21450</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>25992</v>
+        <v>26812</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>32958</v>
+        <v>33366</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>19778</v>
+        <v>19860</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>28201</v>
+        <v>27854</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>32012</v>
+        <v>32500</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>33703</v>
+        <v>33024</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>22708</v>
+        <v>23361</v>
       </c>
     </row>
     <row r="36">
@@ -3556,40 +3556,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>7432</v>
+        <v>7665</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>9156</v>
+        <v>9094</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>12357</v>
+        <v>11322</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>33237</v>
+        <v>33261</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>44062</v>
+        <v>44840</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>79296</v>
+        <v>78437</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>70095</v>
+        <v>69247</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>144723</v>
+        <v>148909</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>54557</v>
+        <v>54281</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>92282</v>
+        <v>92732</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>89045</v>
+        <v>86069</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>188376</v>
+        <v>187197</v>
       </c>
     </row>
     <row r="39">
@@ -3600,40 +3600,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>23119</v>
+        <v>23028</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>25517</v>
+        <v>24143</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>29226</v>
+        <v>28094</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>57042</v>
+        <v>55962</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>74506</v>
+        <v>74635</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>118467</v>
+        <v>119064</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>107678</v>
+        <v>107504</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>189991</v>
+        <v>193056</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>89843</v>
+        <v>88905</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>136281</v>
+        <v>134868</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>127760</v>
+        <v>127268</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>239407</v>
+        <v>237790</v>
       </c>
     </row>
     <row r="40">
